--- a/data/Rankcard.xlsx
+++ b/data/Rankcard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\sss\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\amazon\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895FAE4D-3273-490F-91B7-F94FF306D1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4919C03-BFB1-4704-AA90-E1595310B28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>bhrathi2356235</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>edge</t>
   </si>
 </sst>
 </file>
@@ -381,7 +387,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,7 +425,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
